--- a/Morosos/informe_reporte_morosos.xlsx
+++ b/Morosos/informe_reporte_morosos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
   <si>
     <t>identificacion</t>
   </si>
@@ -49,9 +49,6 @@
     <t>1021926460</t>
   </si>
   <si>
-    <t>1025893767</t>
-  </si>
-  <si>
     <t>1027816986</t>
   </si>
   <si>
@@ -61,33 +58,18 @@
     <t>1020319550</t>
   </si>
   <si>
-    <t>1096702093</t>
-  </si>
-  <si>
     <t>1025897533</t>
   </si>
   <si>
-    <t>1013466654</t>
-  </si>
-  <si>
     <t>1033198814</t>
   </si>
   <si>
-    <t>1021935485</t>
-  </si>
-  <si>
     <t>1025659461</t>
   </si>
   <si>
     <t>1034994315</t>
   </si>
   <si>
-    <t>1021930204</t>
-  </si>
-  <si>
-    <t>1020313616</t>
-  </si>
-  <si>
     <t>1011515086</t>
   </si>
   <si>
@@ -106,51 +88,18 @@
     <t>1013353521</t>
   </si>
   <si>
-    <t>1023655377</t>
-  </si>
-  <si>
     <t>1020227383</t>
   </si>
   <si>
-    <t>1023527637</t>
-  </si>
-  <si>
-    <t>1037888238</t>
-  </si>
-  <si>
-    <t>1011517846</t>
-  </si>
-  <si>
     <t>1054882046</t>
   </si>
   <si>
-    <t>1042587012</t>
-  </si>
-  <si>
-    <t>1018269052</t>
-  </si>
-  <si>
-    <t>1041634370</t>
-  </si>
-  <si>
     <t>1018258929</t>
   </si>
   <si>
-    <t>1018248468</t>
-  </si>
-  <si>
-    <t>1017209533</t>
-  </si>
-  <si>
-    <t>1011513429</t>
-  </si>
-  <si>
     <t>1021931357</t>
   </si>
   <si>
-    <t>1017938288</t>
-  </si>
-  <si>
     <t>1192469448</t>
   </si>
   <si>
@@ -160,15 +109,6 @@
     <t>1020225476</t>
   </si>
   <si>
-    <t>1029301914</t>
-  </si>
-  <si>
-    <t>1011518615</t>
-  </si>
-  <si>
-    <t>1093600920</t>
-  </si>
-  <si>
     <t>1011518603</t>
   </si>
   <si>
@@ -196,9 +136,6 @@
     <t>1021928865</t>
   </si>
   <si>
-    <t>1129244633</t>
-  </si>
-  <si>
     <t>1021941636</t>
   </si>
   <si>
@@ -208,24 +145,12 @@
     <t>1015075125</t>
   </si>
   <si>
-    <t>1025663772</t>
-  </si>
-  <si>
-    <t>1031943917</t>
-  </si>
-  <si>
     <t>1035008500</t>
   </si>
   <si>
-    <t>1011404208</t>
-  </si>
-  <si>
     <t>1025904957</t>
   </si>
   <si>
-    <t>1020231885</t>
-  </si>
-  <si>
     <t>1037676515</t>
   </si>
   <si>
@@ -235,12 +160,6 @@
     <t>1018254757</t>
   </si>
   <si>
-    <t>1141722491</t>
-  </si>
-  <si>
-    <t>1141719278</t>
-  </si>
-  <si>
     <t>1011106856</t>
   </si>
   <si>
@@ -250,15 +169,9 @@
     <t>1025667898</t>
   </si>
   <si>
-    <t>1033184220</t>
-  </si>
-  <si>
     <t>1033200952</t>
   </si>
   <si>
-    <t>1033190800</t>
-  </si>
-  <si>
     <t>1034925183</t>
   </si>
   <si>
@@ -271,9 +184,6 @@
     <t>1034924450</t>
   </si>
   <si>
-    <t>1017933562</t>
-  </si>
-  <si>
     <t>1023655274</t>
   </si>
   <si>
@@ -286,9 +196,6 @@
     <t>Alonso Alvarez Valentina</t>
   </si>
   <si>
-    <t>Alvarez Castaño Santiago</t>
-  </si>
-  <si>
     <t>Aroca Aguirre Maria Celeste</t>
   </si>
   <si>
@@ -298,33 +205,18 @@
     <t>Arroyave Gonzalez Elisabet</t>
   </si>
   <si>
-    <t>Bohorquez Vera Ana Sofia</t>
-  </si>
-  <si>
     <t>Bohorquez Vera Juan Esteban</t>
   </si>
   <si>
-    <t>Cardona Mosquera Roxana</t>
-  </si>
-  <si>
     <t>Carmona Taborda Luciana</t>
   </si>
   <si>
-    <t>Clavijo Quiceno Sara</t>
-  </si>
-  <si>
     <t>Correa Castañeda Laura</t>
   </si>
   <si>
     <t>Cubillos Martinez Samuel</t>
   </si>
   <si>
-    <t>Diaz Gonzalez Matias</t>
-  </si>
-  <si>
-    <t>Duque Bermudez Juan Andres</t>
-  </si>
-  <si>
     <t>Echeverri Agudelo Samuel</t>
   </si>
   <si>
@@ -343,51 +235,18 @@
     <t>Garcia Ramirez Nicolas</t>
   </si>
   <si>
-    <t>Garcia Valencia Nicolas</t>
-  </si>
-  <si>
     <t>Garzon Moreno Cristian</t>
   </si>
   <si>
-    <t>Garzon Sanchez Matias</t>
-  </si>
-  <si>
-    <t>Giraldo Avendaño Samuel</t>
-  </si>
-  <si>
-    <t>Giraldo Lozano Emma</t>
-  </si>
-  <si>
     <t>Gomez Leon Mateo</t>
   </si>
   <si>
-    <t>Guette Ortiz Ashley Carolina</t>
-  </si>
-  <si>
-    <t>Guette Ortiz Norah Isabella</t>
-  </si>
-  <si>
-    <t>Jaramillo Agudelo Ana Sofia</t>
-  </si>
-  <si>
     <t>Jaramillo Carranza Camila</t>
   </si>
   <si>
-    <t>Jaramillo Carranza Santiago</t>
-  </si>
-  <si>
-    <t>Londoño Misas Emmanuel</t>
-  </si>
-  <si>
-    <t>Luna Higuita Matias</t>
-  </si>
-  <si>
     <t>Machado Taborda Mateo</t>
   </si>
   <si>
-    <t>Marin Correa Matias</t>
-  </si>
-  <si>
     <t>Marquez Mora Emilia</t>
   </si>
   <si>
@@ -397,15 +256,6 @@
     <t>Martinez Correa Tomas</t>
   </si>
   <si>
-    <t>Narvaez Martinez Samuel</t>
-  </si>
-  <si>
-    <t>Ortega Zabala Abigail</t>
-  </si>
-  <si>
-    <t>Ortega Zabala Heri Thomas</t>
-  </si>
-  <si>
     <t>Ospina Cifuentes Antonella</t>
   </si>
   <si>
@@ -433,9 +283,6 @@
     <t>Quintero Taborda Pablo</t>
   </si>
   <si>
-    <t>Rincon Mendoza Hulieth Gabriela</t>
-  </si>
-  <si>
     <t>Rojas Jimenez Sofia</t>
   </si>
   <si>
@@ -445,24 +292,12 @@
     <t>Ruiz Rodas Jacobo</t>
   </si>
   <si>
-    <t>Ruiz Urquijo Martin</t>
-  </si>
-  <si>
-    <t>Ruiz Urquijo Violeta</t>
-  </si>
-  <si>
     <t>Sanabria Cardona Santiago</t>
   </si>
   <si>
-    <t>Sanchez Bustamante Genesis</t>
-  </si>
-  <si>
     <t>Sanchez Justiniano Jose David</t>
   </si>
   <si>
-    <t>Sanchez Otalvaro Guadalupe</t>
-  </si>
-  <si>
     <t>Santos Paz Ezra Wolf</t>
   </si>
   <si>
@@ -472,12 +307,6 @@
     <t>Sayago Acevedo Samuel</t>
   </si>
   <si>
-    <t>Segura Rios Emmanuel David</t>
-  </si>
-  <si>
-    <t>Segura Rios Samuel Felipe</t>
-  </si>
-  <si>
     <t>Suarez Bayona Martina</t>
   </si>
   <si>
@@ -487,15 +316,9 @@
     <t>Troya Rendon Emanuel</t>
   </si>
   <si>
-    <t>Usma Jaramillo Luciana</t>
-  </si>
-  <si>
     <t>Usma Jaramillo Maria Celeste</t>
   </si>
   <si>
-    <t>Usuga Hidalgo Juan Sebastian</t>
-  </si>
-  <si>
     <t>Vanegas Pulgarin Sheray</t>
   </si>
   <si>
@@ -508,9 +331,6 @@
     <t>Vasquez Rodas Josue</t>
   </si>
   <si>
-    <t>Vasquez Rodas Juan Camilo</t>
-  </si>
-  <si>
     <t>Zambrano Mejia Mariangel</t>
   </si>
   <si>
@@ -544,21 +364,18 @@
     <t>SEXTO</t>
   </si>
   <si>
+    <t>DÉCIMO</t>
+  </si>
+  <si>
     <t>TERCERO</t>
   </si>
   <si>
-    <t>DÉCIMO</t>
-  </si>
-  <si>
     <t>Agudelo Juliet Cristina</t>
   </si>
   <si>
     <t>Alvarez Ortiz Gladyss Patricia</t>
   </si>
   <si>
-    <t>Alvarez Maldonado Ricardo Leon</t>
-  </si>
-  <si>
     <t>Aguirre Castro Maria Paulina</t>
   </si>
   <si>
@@ -568,27 +385,15 @@
     <t>Bohorquez Almeida Cristian</t>
   </si>
   <si>
-    <t>Mosquera Rodriguez Tania Karina</t>
-  </si>
-  <si>
     <t>Correa Claudia Patricia</t>
   </si>
   <si>
-    <t>Carreño Bohorquez Nora Maria</t>
-  </si>
-  <si>
     <t>Correa Correa Mauricio</t>
   </si>
   <si>
     <t>Cubillos Valencia Fabio</t>
   </si>
   <si>
-    <t>Diaz Rico John Edwin</t>
-  </si>
-  <si>
-    <t>Duque Botero Johnny Yesid</t>
-  </si>
-  <si>
     <t>Echeverry Agudelo Sara Catalina</t>
   </si>
   <si>
@@ -604,45 +409,18 @@
     <t>Ramirez Suarez Leidy Tatiana</t>
   </si>
   <si>
-    <t>Valencia Gonzalez Leydy Vanessa</t>
-  </si>
-  <si>
     <t>Garzon Prieto Nelson Fidel</t>
   </si>
   <si>
-    <t>Garzon Oscar Javier</t>
-  </si>
-  <si>
-    <t>Avendaño Tamayo Yudi Patricia</t>
-  </si>
-  <si>
-    <t>Lozano Mosquera Mariam</t>
-  </si>
-  <si>
     <t>Gomez Serna Daniel</t>
   </si>
   <si>
-    <t>Ortiz Julio Sirly Dayana</t>
-  </si>
-  <si>
-    <t>Agudelo Torres Sumilde Elena</t>
-  </si>
-  <si>
     <t>Carranza Ricardo Diana Marcela</t>
   </si>
   <si>
-    <t>Misas Agudelo Francy Eunice</t>
-  </si>
-  <si>
-    <t>Luna Berrio Sergio Alberto</t>
-  </si>
-  <si>
     <t>Sas Inversiones Myt</t>
   </si>
   <si>
-    <t>Correa Arboleda Ana Maria</t>
-  </si>
-  <si>
     <t>Mora Cardona Katherine</t>
   </si>
   <si>
@@ -652,12 +430,6 @@
     <t>Correa Mejia Catalina</t>
   </si>
   <si>
-    <t>Martinez Florez Yerlys Sadit</t>
-  </si>
-  <si>
-    <t>Zabala Cuervo Diana Rocio</t>
-  </si>
-  <si>
     <t>Ospina Escobar Nilson James</t>
   </si>
   <si>
@@ -682,9 +454,6 @@
     <t>Quintero Clavijo Jader Elias</t>
   </si>
   <si>
-    <t>Rincón Juez Esteban</t>
-  </si>
-  <si>
     <t>Alvarez Betancur Rubiela</t>
   </si>
   <si>
@@ -694,21 +463,12 @@
     <t>Rodas Marin Monica Janeth</t>
   </si>
   <si>
-    <t>Ruiz Cardona Pablo Andres</t>
-  </si>
-  <si>
     <t>Sanabria Ballen Andres Leonardo</t>
   </si>
   <si>
-    <t>Sanchez Lopez Giovanny Arley</t>
-  </si>
-  <si>
     <t>Sanchez Justiniano Martha Catherine</t>
   </si>
   <si>
-    <t>Sanchez Agudelo Uber Herney</t>
-  </si>
-  <si>
     <t>Santos Lopez Sebastian</t>
   </si>
   <si>
@@ -718,9 +478,6 @@
     <t>Acevedo Galeano Viviana</t>
   </si>
   <si>
-    <t>Segura Camacho Oscar Dario</t>
-  </si>
-  <si>
     <t>Bayona Buitrago Sandra Milena</t>
   </si>
   <si>
@@ -733,9 +490,6 @@
     <t>Usma Acevedo Elkin Humberto</t>
   </si>
   <si>
-    <t>Usuga Sepulveda Henrry</t>
-  </si>
-  <si>
     <t>Pulgarin Zuluaga Ana Maria</t>
   </si>
   <si>
@@ -763,9 +517,6 @@
     <t>Abuela</t>
   </si>
   <si>
-    <t>Tía</t>
-  </si>
-  <si>
     <t>Padrastro</t>
   </si>
   <si>
@@ -775,9 +526,6 @@
     <t>5802618</t>
   </si>
   <si>
-    <t>5088887</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -787,24 +535,12 @@
     <t>5076630</t>
   </si>
   <si>
-    <t>5095498</t>
-  </si>
-  <si>
     <t>3148691862</t>
   </si>
   <si>
-    <t>4432431</t>
-  </si>
-  <si>
     <t>5055211</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>2941548</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -820,42 +556,15 @@
     <t>5864004</t>
   </si>
   <si>
-    <t>5802367</t>
-  </si>
-  <si>
-    <t>3207670009</t>
-  </si>
-  <si>
-    <t>3204103173</t>
-  </si>
-  <si>
-    <t>5O9 80 21</t>
-  </si>
-  <si>
-    <t>5038065</t>
-  </si>
-  <si>
     <t>4811500</t>
   </si>
   <si>
-    <t>5771777</t>
-  </si>
-  <si>
     <t>4195996</t>
   </si>
   <si>
-    <t>3113353894</t>
-  </si>
-  <si>
     <t>4773589</t>
   </si>
   <si>
-    <t>4420606</t>
-  </si>
-  <si>
-    <t>3124291951</t>
-  </si>
-  <si>
     <t>3013620164</t>
   </si>
   <si>
@@ -871,33 +580,18 @@
     <t>4779004</t>
   </si>
   <si>
-    <t>3013490904</t>
-  </si>
-  <si>
     <t>3022703240</t>
   </si>
   <si>
     <t>2840252</t>
   </si>
   <si>
-    <t>4802180</t>
-  </si>
-  <si>
     <t>2347767</t>
   </si>
   <si>
-    <t>4330808</t>
-  </si>
-  <si>
-    <t>4613821</t>
-  </si>
-  <si>
     <t>3117634856</t>
   </si>
   <si>
-    <t>5863905</t>
-  </si>
-  <si>
     <t>4886484</t>
   </si>
   <si>
@@ -922,9 +616,6 @@
     <t>patoalvarez7@gmail.com</t>
   </si>
   <si>
-    <t>RICARDOLEON4@HOTMAIL.COM</t>
-  </si>
-  <si>
     <t>mariapaulinaaguirrecastro14@gmail.com</t>
   </si>
   <si>
@@ -934,24 +625,12 @@
     <t>KRISTIANBOHOR25@HOTMAIL.COM</t>
   </si>
   <si>
-    <t>ANDRESCARDONA70@GMAIL.COM</t>
-  </si>
-  <si>
     <t>geraldinetabordacardona@gmail.com</t>
   </si>
   <si>
-    <t>marybella2905@gmail.com</t>
-  </si>
-  <si>
     <t>FCUBILLOS@YAHOO.COM</t>
   </si>
   <si>
-    <t>jhondiazrico@gmail.com</t>
-  </si>
-  <si>
-    <t>ABERMUDEZ1029@YAHOO.ES</t>
-  </si>
-  <si>
     <t>SARITA-ECHEVERRI@HOTMAIL.COM</t>
   </si>
   <si>
@@ -967,45 +646,18 @@
     <t>Ramirezsuarezt@gmail.com</t>
   </si>
   <si>
-    <t>vvalen88@gmail.com</t>
-  </si>
-  <si>
     <t>CONTACTENOSPRAZER@GMAIL.COM</t>
   </si>
   <si>
-    <t>MADIZ_83@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>yuditamayo862@gmail.com</t>
-  </si>
-  <si>
-    <t>esteban.g0104@hotmail.com</t>
-  </si>
-  <si>
     <t>yeimyleon8904@gmail.com</t>
   </si>
   <si>
-    <t>Sirlydayana@hotmail.com</t>
-  </si>
-  <si>
-    <t>SEAGUDELOT@GMAIL.COM</t>
-  </si>
-  <si>
     <t>carranza.dm21@hotmail.es</t>
   </si>
   <si>
-    <t>FRANCYLON@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>SERGIOLUNA5113@GMAIL.COM</t>
-  </si>
-  <si>
     <t>SELVAAZUL_07@YAHOO.ES</t>
   </si>
   <si>
-    <t>amariac22@hotmail.com</t>
-  </si>
-  <si>
     <t>ktmc-10@hotmail.com</t>
   </si>
   <si>
@@ -1015,15 +667,6 @@
     <t>CATALINACORREA1327@GMAIL.COM</t>
   </si>
   <si>
-    <t>ysmartinez01@gmail.com</t>
-  </si>
-  <si>
-    <t>dianitazabal@hotmail.com</t>
-  </si>
-  <si>
-    <t>DIANITAZABALA@HOTMAIL.COM</t>
-  </si>
-  <si>
     <t>y-ulivale@hotmail.com</t>
   </si>
   <si>
@@ -1048,9 +691,6 @@
     <t>LEIDYJOHANITA1984@GMAIL.COM</t>
   </si>
   <si>
-    <t>leidyhulieth@gmail.com</t>
-  </si>
-  <si>
     <t>pablopoderoso@gmail.com</t>
   </si>
   <si>
@@ -1060,30 +700,18 @@
     <t>MONICA.RODASM@GMAIL.COM</t>
   </si>
   <si>
-    <t>RUIZ_CARDONA@HOTMAIL.COM</t>
-  </si>
-  <si>
     <t>sanabriaandres501@Gmail.com</t>
   </si>
   <si>
-    <t>gerente.magesa@gmail.com</t>
-  </si>
-  <si>
     <t>marthacsanchezj@gmail.com</t>
   </si>
   <si>
-    <t>FERNEY1981-@HOTMAIL.COM</t>
-  </si>
-  <si>
     <t>ss7canada@gmail.com</t>
   </si>
   <si>
     <t>VIACEGA@GMAIL.COM</t>
   </si>
   <si>
-    <t>lilios12@hotmail.com</t>
-  </si>
-  <si>
     <t>samy587@hotmail.com</t>
   </si>
   <si>
@@ -1094,9 +722,6 @@
   </si>
   <si>
     <t>HECHIS83@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>USUGA2310@GMAIL.COM</t>
   </si>
   <si>
     <t>sherayvp@gmail.com</t>
@@ -1472,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,25 +1137,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="G2">
         <v>3137650642</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="I2">
         <v>5456470</v>
@@ -1541,25 +1166,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="G3">
         <v>3003859037</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="I3">
         <v>855430</v>
@@ -1570,28 +1195,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="G4">
-        <v>3003705427</v>
+        <v>3102176115</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="I4">
-        <v>856086</v>
+        <v>917784</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1599,28 +1224,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G5">
         <v>3102176115</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>917784</v>
+        <v>981908</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1628,28 +1253,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="G6">
-        <v>3102176115</v>
+        <v>3005041266</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="I6">
-        <v>981908</v>
+        <v>1113788</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1657,28 +1282,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="G7">
-        <v>3005041266</v>
+        <v>3187766267</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="I7">
-        <v>1113788</v>
+        <v>1122974</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1686,28 +1311,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="G8">
-        <v>3187766267</v>
+        <v>3006153207</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="I8">
-        <v>963692</v>
+        <v>4054726</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1715,28 +1340,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="G9">
-        <v>3187766267</v>
-      </c>
-      <c r="H9" t="s">
-        <v>305</v>
+        <v>3117099355</v>
       </c>
       <c r="I9">
-        <v>1687461</v>
+        <v>997283</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1744,28 +1366,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="G10">
-        <v>3185029620</v>
+        <v>3183902516</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="I10">
-        <v>1106608</v>
+        <v>963692</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1773,28 +1395,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="G11">
-        <v>3006153207</v>
+        <v>3143828183</v>
       </c>
       <c r="H11" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="I11">
-        <v>4054726</v>
+        <v>2148095</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1802,28 +1424,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="G12">
-        <v>3016959292</v>
+        <v>3015686911</v>
       </c>
       <c r="H12" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="I12">
-        <v>1179728</v>
+        <v>3452390</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1831,25 +1453,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="G13">
-        <v>3117099355</v>
+        <v>3015686911</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
       </c>
       <c r="I13">
-        <v>997283</v>
+        <v>3882851</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1857,28 +1482,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G14">
-        <v>3183902516</v>
+        <v>3002731587</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="I14">
-        <v>963692</v>
+        <v>804948</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1886,28 +1511,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="G15">
-        <v>3045957277</v>
+        <v>3013564721</v>
       </c>
       <c r="H15" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="I15">
-        <v>1429005</v>
+        <v>2508680</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1915,28 +1540,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="G16">
-        <v>3005159999</v>
+        <v>3146320382</v>
       </c>
       <c r="H16" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="I16">
-        <v>1060224</v>
+        <v>1276240</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1944,28 +1569,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="G17">
-        <v>3143828183</v>
+        <v>3154274962</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="I17">
-        <v>2148095</v>
+        <v>1896588</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1973,28 +1598,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="G18">
-        <v>3015686911</v>
+        <v>3160524609</v>
       </c>
       <c r="H18" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="I18">
-        <v>3452390</v>
+        <v>2254772</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2002,28 +1627,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="G19">
-        <v>3015686911</v>
+        <v>3206768830</v>
       </c>
       <c r="H19" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="I19">
-        <v>3882851</v>
+        <v>1041848</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2031,28 +1656,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="G20">
-        <v>3002731587</v>
+        <v>3136146481</v>
       </c>
       <c r="H20" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="I20">
-        <v>804948</v>
+        <v>1062660</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2060,28 +1685,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="G21">
-        <v>3013564721</v>
+        <v>3116823407</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="I21">
-        <v>2508680</v>
+        <v>1472088</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2089,28 +1714,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" t="s">
-        <v>266</v>
-      </c>
       <c r="G22">
-        <v>3146320382</v>
+        <v>3013807813</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="I22">
-        <v>1426240</v>
+        <v>1164470</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2118,28 +1743,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="G23">
-        <v>3008422214</v>
+        <v>3003934941</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="I23">
-        <v>1259932</v>
+        <v>947650</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2147,28 +1772,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="G24">
-        <v>3154274962</v>
+        <v>3013620164</v>
       </c>
       <c r="H24" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="I24">
-        <v>1896588</v>
+        <v>3020840</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2176,28 +1801,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="G25">
-        <v>3006564611</v>
+        <v>5614641026</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="I25">
-        <v>907888</v>
+        <v>1152417</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2205,28 +1830,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="G26">
-        <v>3196081770</v>
+        <v>3177063250</v>
       </c>
       <c r="H26" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="I26">
-        <v>2234789</v>
+        <v>1290024</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2234,28 +1859,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="G27">
-        <v>3147398657</v>
+        <v>3178333446</v>
       </c>
       <c r="H27" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="I27">
-        <v>1757139</v>
+        <v>1780941</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2263,28 +1888,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G28">
-        <v>3160524609</v>
+        <v>3226367303</v>
       </c>
       <c r="H28" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="I28">
-        <v>2254772</v>
+        <v>1945360</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2292,28 +1917,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="G29">
-        <v>3013531871</v>
+        <v>3137703488</v>
       </c>
       <c r="H29" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="I29">
-        <v>952930</v>
+        <v>859330</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2321,28 +1946,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="G30">
-        <v>3013531871</v>
+        <v>3233605163</v>
       </c>
       <c r="H30" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="I30">
-        <v>1259932</v>
+        <v>2701144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2350,28 +1975,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="G31">
-        <v>3102013484</v>
+        <v>3014531487</v>
       </c>
       <c r="H31" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="I31">
-        <v>945350</v>
+        <v>997472</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2379,28 +2004,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="G32">
-        <v>3206768830</v>
+        <v>3014531487</v>
       </c>
       <c r="H32" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="I32">
-        <v>1041848</v>
+        <v>856204</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2408,28 +2033,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="G33">
-        <v>3206768830</v>
+        <v>3022703240</v>
       </c>
       <c r="H33" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="I33">
-        <v>890566</v>
+        <v>1278590</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2437,28 +2062,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="G34">
-        <v>3173512483</v>
+        <v>3106368274</v>
       </c>
       <c r="H34" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="I34">
-        <v>890300</v>
+        <v>2074650</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2466,28 +2091,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="G35">
-        <v>3106365401</v>
+        <v>3008674834</v>
       </c>
       <c r="H35" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="I35">
-        <v>808330</v>
+        <v>1513860</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2495,28 +2120,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="G36">
-        <v>3136146481</v>
+        <v>3022424243</v>
       </c>
       <c r="H36" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="I36">
-        <v>1062660</v>
+        <v>1279090</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2524,28 +2149,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="G37">
-        <v>3113353894</v>
+        <v>3168660548</v>
       </c>
       <c r="H37" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="I37">
-        <v>1094930</v>
+        <v>2371470</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2553,28 +2178,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="G38">
-        <v>3116823407</v>
+        <v>3028133419</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="I38">
-        <v>1472088</v>
+        <v>1192214</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2582,28 +2207,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G39">
-        <v>3013807813</v>
+        <v>3207608861</v>
       </c>
       <c r="H39" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="I39">
-        <v>1164470</v>
+        <v>3534736</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2611,28 +2236,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="G40">
-        <v>3003934941</v>
+        <v>3207608861</v>
       </c>
       <c r="H40" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="I40">
-        <v>947650</v>
+        <v>5694870</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2640,28 +2265,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="G41">
-        <v>3103980290</v>
+        <v>3115341734</v>
       </c>
       <c r="H41" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="I41">
-        <v>1034304</v>
+        <v>1095930</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2669,28 +2294,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="G42">
-        <v>3124291951</v>
+        <v>3205617348</v>
       </c>
       <c r="H42" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="I42">
-        <v>1205330</v>
+        <v>2698565</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2698,28 +2323,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="G43">
-        <v>3052428112</v>
+        <v>3206798318</v>
       </c>
       <c r="H43" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="I43">
-        <v>1010300</v>
+        <v>1405060</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2727,28 +2352,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="G44">
-        <v>3013620164</v>
+        <v>3175795524</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="I44">
-        <v>3020840</v>
+        <v>1136514</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2756,28 +2381,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G45">
-        <v>5614641026</v>
+        <v>3128021315</v>
       </c>
       <c r="H45" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I45">
-        <v>1152417</v>
+        <v>2177948</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2785,28 +2410,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="G46">
-        <v>3177063250</v>
+        <v>3137019267</v>
       </c>
       <c r="H46" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="I46">
-        <v>1290024</v>
+        <v>963692</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2814,28 +2439,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="G47">
-        <v>3178333446</v>
+        <v>3184795864</v>
       </c>
       <c r="H47" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="I47">
-        <v>2978235</v>
+        <v>1900010</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2843,28 +2468,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="G48">
-        <v>3226367303</v>
+        <v>3052245305</v>
       </c>
       <c r="H48" t="s">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="I48">
-        <v>1945360</v>
+        <v>1111364</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2872,28 +2497,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="G49">
-        <v>3137703488</v>
+        <v>3003183744</v>
       </c>
       <c r="H49" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="I49">
-        <v>859330</v>
+        <v>2378588</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2901,897 +2526,27 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="G50">
-        <v>3233605163</v>
+        <v>3022250446</v>
       </c>
       <c r="H50" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="I50">
-        <v>2701144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" t="s">
-        <v>246</v>
-      </c>
-      <c r="F51" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51">
-        <v>3014531487</v>
-      </c>
-      <c r="H51" t="s">
-        <v>343</v>
-      </c>
-      <c r="I51">
-        <v>997472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" t="s">
-        <v>246</v>
-      </c>
-      <c r="F52" t="s">
-        <v>284</v>
-      </c>
-      <c r="G52">
-        <v>3014531487</v>
-      </c>
-      <c r="H52" t="s">
-        <v>343</v>
-      </c>
-      <c r="I52">
-        <v>856204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" t="s">
-        <v>246</v>
-      </c>
-      <c r="F53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G53">
-        <v>3013490904</v>
-      </c>
-      <c r="H53" t="s">
-        <v>344</v>
-      </c>
-      <c r="I53">
-        <v>856204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" t="s">
-        <v>286</v>
-      </c>
-      <c r="G54">
-        <v>3022703240</v>
-      </c>
-      <c r="H54" t="s">
-        <v>345</v>
-      </c>
-      <c r="I54">
-        <v>1278590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" t="s">
-        <v>246</v>
-      </c>
-      <c r="F55" t="s">
-        <v>254</v>
-      </c>
-      <c r="G55">
-        <v>3106368274</v>
-      </c>
-      <c r="H55" t="s">
-        <v>346</v>
-      </c>
-      <c r="I55">
-        <v>2074650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" t="s">
-        <v>225</v>
-      </c>
-      <c r="E56" t="s">
-        <v>246</v>
-      </c>
-      <c r="F56" t="s">
-        <v>287</v>
-      </c>
-      <c r="G56">
-        <v>3008674834</v>
-      </c>
-      <c r="H56" t="s">
-        <v>347</v>
-      </c>
-      <c r="I56">
-        <v>1913860</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" t="s">
-        <v>247</v>
-      </c>
-      <c r="F57" t="s">
-        <v>288</v>
-      </c>
-      <c r="G57">
-        <v>3002900521</v>
-      </c>
-      <c r="H57" t="s">
-        <v>348</v>
-      </c>
-      <c r="I57">
-        <v>1063064</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" t="s">
-        <v>288</v>
-      </c>
-      <c r="G58">
-        <v>3002900521</v>
-      </c>
-      <c r="H58" t="s">
-        <v>348</v>
-      </c>
-      <c r="I58">
-        <v>1102608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" t="s">
-        <v>247</v>
-      </c>
-      <c r="F59" t="s">
-        <v>289</v>
-      </c>
-      <c r="G59">
-        <v>3022424243</v>
-      </c>
-      <c r="H59" t="s">
-        <v>349</v>
-      </c>
-      <c r="I59">
-        <v>1279090</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" t="s">
-        <v>290</v>
-      </c>
-      <c r="G60">
-        <v>3127382747</v>
-      </c>
-      <c r="H60" t="s">
-        <v>350</v>
-      </c>
-      <c r="I60">
-        <v>998034</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" t="s">
-        <v>246</v>
-      </c>
-      <c r="F61" t="s">
-        <v>254</v>
-      </c>
-      <c r="G61">
-        <v>3168660548</v>
-      </c>
-      <c r="H61" t="s">
-        <v>351</v>
-      </c>
-      <c r="I61">
-        <v>2371470</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" t="s">
-        <v>247</v>
-      </c>
-      <c r="F62" t="s">
-        <v>291</v>
-      </c>
-      <c r="G62">
-        <v>3113050346</v>
-      </c>
-      <c r="H62" t="s">
-        <v>352</v>
-      </c>
-      <c r="I62">
-        <v>1113788</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G63">
-        <v>3028133419</v>
-      </c>
-      <c r="H63" t="s">
-        <v>353</v>
-      </c>
-      <c r="I63">
-        <v>1192214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" t="s">
-        <v>232</v>
-      </c>
-      <c r="E64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F64" t="s">
-        <v>254</v>
-      </c>
-      <c r="G64">
-        <v>3207608861</v>
-      </c>
-      <c r="H64" t="s">
-        <v>354</v>
-      </c>
-      <c r="I64">
-        <v>3534736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" t="s">
-        <v>254</v>
-      </c>
-      <c r="G65">
-        <v>3207608861</v>
-      </c>
-      <c r="H65" t="s">
-        <v>354</v>
-      </c>
-      <c r="I65">
-        <v>5694870</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" t="s">
-        <v>246</v>
-      </c>
-      <c r="F66" t="s">
-        <v>293</v>
-      </c>
-      <c r="G66">
-        <v>3148214908</v>
-      </c>
-      <c r="H66" t="s">
-        <v>355</v>
-      </c>
-      <c r="I66">
-        <v>1113788</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" t="s">
-        <v>246</v>
-      </c>
-      <c r="F67" t="s">
-        <v>293</v>
-      </c>
-      <c r="G67">
-        <v>3148214908</v>
-      </c>
-      <c r="H67" t="s">
-        <v>355</v>
-      </c>
-      <c r="I67">
-        <v>1010460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" t="s">
-        <v>235</v>
-      </c>
-      <c r="E68" t="s">
-        <v>246</v>
-      </c>
-      <c r="F68" t="s">
-        <v>294</v>
-      </c>
-      <c r="G68">
-        <v>3115341734</v>
-      </c>
-      <c r="H68" t="s">
-        <v>356</v>
-      </c>
-      <c r="I68">
-        <v>1095930</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" t="s">
-        <v>246</v>
-      </c>
-      <c r="F69" t="s">
-        <v>295</v>
-      </c>
-      <c r="G69">
-        <v>3205617348</v>
-      </c>
-      <c r="H69" t="s">
-        <v>357</v>
-      </c>
-      <c r="I69">
-        <v>2898565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" t="s">
-        <v>237</v>
-      </c>
-      <c r="E70" t="s">
-        <v>247</v>
-      </c>
-      <c r="F70" t="s">
-        <v>254</v>
-      </c>
-      <c r="G70">
-        <v>3206798318</v>
-      </c>
-      <c r="H70" t="s">
-        <v>358</v>
-      </c>
-      <c r="I70">
-        <v>1405060</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" t="s">
-        <v>296</v>
-      </c>
-      <c r="G71">
-        <v>3175795524</v>
-      </c>
-      <c r="H71" t="s">
-        <v>359</v>
-      </c>
-      <c r="I71">
-        <v>856086</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>247</v>
-      </c>
-      <c r="F72" t="s">
-        <v>296</v>
-      </c>
-      <c r="G72">
-        <v>3175795524</v>
-      </c>
-      <c r="H72" t="s">
-        <v>359</v>
-      </c>
-      <c r="I72">
-        <v>1136514</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" t="s">
-        <v>247</v>
-      </c>
-      <c r="F73" t="s">
-        <v>254</v>
-      </c>
-      <c r="G73">
-        <v>3116803238</v>
-      </c>
-      <c r="H73" t="s">
-        <v>360</v>
-      </c>
-      <c r="I73">
-        <v>944294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" t="s">
-        <v>240</v>
-      </c>
-      <c r="E74" t="s">
-        <v>246</v>
-      </c>
-      <c r="F74" t="s">
-        <v>254</v>
-      </c>
-      <c r="G74">
-        <v>3128021315</v>
-      </c>
-      <c r="H74" t="s">
-        <v>361</v>
-      </c>
-      <c r="I74">
-        <v>2177948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" t="s">
-        <v>247</v>
-      </c>
-      <c r="F75" t="s">
-        <v>297</v>
-      </c>
-      <c r="G75">
-        <v>3137019267</v>
-      </c>
-      <c r="H75" t="s">
-        <v>362</v>
-      </c>
-      <c r="I75">
-        <v>963692</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" t="s">
-        <v>247</v>
-      </c>
-      <c r="F76" t="s">
-        <v>298</v>
-      </c>
-      <c r="G76">
-        <v>3184795864</v>
-      </c>
-      <c r="H76" t="s">
-        <v>363</v>
-      </c>
-      <c r="I76">
-        <v>1900010</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" t="s">
-        <v>243</v>
-      </c>
-      <c r="E77" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" t="s">
-        <v>299</v>
-      </c>
-      <c r="G77">
-        <v>3052245305</v>
-      </c>
-      <c r="H77" t="s">
-        <v>364</v>
-      </c>
-      <c r="I77">
-        <v>1111364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" t="s">
-        <v>299</v>
-      </c>
-      <c r="G78">
-        <v>3052245305</v>
-      </c>
-      <c r="H78" t="s">
-        <v>364</v>
-      </c>
-      <c r="I78">
-        <v>909664</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79" t="s">
-        <v>254</v>
-      </c>
-      <c r="G79">
-        <v>3003183744</v>
-      </c>
-      <c r="H79" t="s">
-        <v>365</v>
-      </c>
-      <c r="I79">
-        <v>2378588</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" t="s">
-        <v>254</v>
-      </c>
-      <c r="G80">
-        <v>3022250446</v>
-      </c>
-      <c r="H80" t="s">
-        <v>366</v>
-      </c>
-      <c r="I80">
         <v>1040000</v>
       </c>
     </row>
